--- a/Sample_list.xlsx
+++ b/Sample_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Emerson_Lab_Work\SV-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3653A4-18A3-45FB-AFE8-C702DDC82A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD839E-ACDA-432F-A18F-A647ADF995C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="241">
   <si>
     <t>Run</t>
   </si>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>SRX8701627</t>
+  </si>
+  <si>
+    <t>Paired with illu?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1699,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1731,7 @@
     <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,8 +1765,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -1788,10 +1803,13 @@
       <c r="K2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1800,33 +1818,36 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -1835,10 +1856,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1847,21 +1868,24 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="L4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -1870,10 +1894,10 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1882,21 +1906,24 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="L5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -1905,10 +1932,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1923,15 +1950,18 @@
         <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="L6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -1940,33 +1970,36 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -1975,33 +2008,36 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -2010,33 +2046,36 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="L9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -2045,33 +2084,36 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2080,16 +2122,16 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>153</v>
@@ -2098,15 +2140,18 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
@@ -2115,16 +2160,16 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2133,15 +2178,18 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -2150,33 +2198,36 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -2185,33 +2236,36 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -2220,33 +2274,36 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -2255,33 +2312,36 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
@@ -2290,16 +2350,16 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>153</v>
@@ -2308,15 +2368,18 @@
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -2325,33 +2388,36 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -2360,33 +2426,36 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -2395,33 +2464,36 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2430,33 +2502,36 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -2465,33 +2540,36 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="L22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
@@ -2500,16 +2578,16 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>51</v>
@@ -2518,15 +2596,18 @@
         <v>52</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -2535,33 +2616,36 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -2570,16 +2654,16 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
         <v>51</v>
@@ -2588,15 +2672,18 @@
         <v>52</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -2605,16 +2692,16 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>51</v>
@@ -2623,15 +2710,18 @@
         <v>52</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -2640,33 +2730,36 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -2675,16 +2768,16 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>51</v>
@@ -2693,15 +2786,18 @@
         <v>52</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -2710,33 +2806,36 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -2745,16 +2844,16 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
@@ -2763,15 +2862,18 @@
         <v>52</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -2780,33 +2882,36 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -2815,16 +2920,16 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -2833,15 +2938,18 @@
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
@@ -2850,33 +2958,36 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -2885,33 +2996,36 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -2920,16 +3034,16 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>51</v>
@@ -2938,15 +3052,18 @@
         <v>52</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="L35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -2955,10 +3072,10 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -2967,21 +3084,24 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="L36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -2990,10 +3110,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -3008,15 +3128,18 @@
         <v>52</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="L37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -3025,16 +3148,16 @@
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
         <v>51</v>
@@ -3043,15 +3166,18 @@
         <v>52</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="K38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -3060,33 +3186,36 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="L39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -3095,16 +3224,16 @@
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
         <v>51</v>
@@ -3113,15 +3242,18 @@
         <v>52</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="L40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -3130,66 +3262,72 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>151</v>
-      </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="L42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>202</v>
       </c>
@@ -3223,8 +3361,11 @@
       <c r="K43" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -3258,10 +3399,13 @@
       <c r="K44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -3270,33 +3414,36 @@
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="L45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -3305,10 +3452,10 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
         <v>89</v>
@@ -3323,15 +3470,18 @@
         <v>52</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B47" t="s">
         <v>39</v>
@@ -3340,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
         <v>89</v>
@@ -3358,15 +3508,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="L47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
         <v>39</v>
@@ -3375,10 +3528,10 @@
         <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
         <v>89</v>
@@ -3393,15 +3546,18 @@
         <v>52</v>
       </c>
       <c r="J48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="L48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -3410,10 +3566,10 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
         <v>89</v>
@@ -3428,15 +3584,18 @@
         <v>52</v>
       </c>
       <c r="J49" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="L49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -3445,10 +3604,10 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
         <v>89</v>
@@ -3463,15 +3622,18 @@
         <v>52</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="L50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -3480,10 +3642,10 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
         <v>89</v>
@@ -3498,15 +3660,18 @@
         <v>52</v>
       </c>
       <c r="J51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="L51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -3515,10 +3680,10 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
         <v>89</v>
@@ -3533,15 +3698,18 @@
         <v>52</v>
       </c>
       <c r="J52" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="L52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -3550,31 +3718,34 @@
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="K53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -3608,10 +3779,13 @@
       <c r="K54" t="s">
         <v>37</v>
       </c>
+      <c r="L54" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
-    <sortCondition ref="J3:J43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L54">
+    <sortCondition ref="I1:I54"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
